--- a/data/trans_orig/P36BPD14_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD14_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24CB7E19-867E-4E9A-A64D-552E80487EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AB63F4D-9DF7-40A5-875D-91B74322DE2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BC7C95B5-381F-4B27-8BE0-98EC0B79B31A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FC7CCE31-FF03-4544-9F7F-2875003C1363}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="261">
   <si>
     <t>Población según el número de veces a la semana que consume los vegetales cocinados, la pasta, el arroz u otros platos aderezados con una salsa de tomate, ajo, cebolla o puerro elaborada a fuego lento con aceite de oliva (sofrito) en 2023 (Tasa respuesta: 99,62%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>3,5%</t>
   </si>
   <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
   </si>
   <si>
     <t>2,65%</t>
   </si>
   <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
   </si>
   <si>
     <t>3,07%</t>
   </si>
   <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
   </si>
   <si>
     <t>Una por semana</t>
@@ -104,28 +104,28 @@
     <t>9,03%</t>
   </si>
   <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
   </si>
   <si>
     <t>10,17%</t>
   </si>
   <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
     <t>7,78%</t>
   </si>
   <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
+    <t>11,96%</t>
   </si>
   <si>
     <t>Dos o más por semana</t>
@@ -134,16 +134,16 @@
     <t>87,47%</t>
   </si>
   <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
   </si>
   <si>
     <t>87,18%</t>
   </si>
   <si>
-    <t>83,56%</t>
+    <t>83,48%</t>
   </si>
   <si>
     <t>89,96%</t>
@@ -152,10 +152,10 @@
     <t>87,32%</t>
   </si>
   <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
   </si>
   <si>
     <t>100%</t>
@@ -167,16 +167,16 @@
     <t>10,74%</t>
   </si>
   <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
   </si>
   <si>
     <t>14,99%</t>
   </si>
   <si>
-    <t>12,52%</t>
+    <t>12,34%</t>
   </si>
   <si>
     <t>17,9%</t>
@@ -185,64 +185,64 @@
     <t>12,93%</t>
   </si>
   <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
   </si>
   <si>
     <t>45,94%</t>
   </si>
   <si>
-    <t>40,72%</t>
-  </si>
-  <si>
-    <t>52,35%</t>
+    <t>40,31%</t>
+  </si>
+  <si>
+    <t>51,21%</t>
   </si>
   <si>
     <t>41,06%</t>
   </si>
   <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>45,09%</t>
   </si>
   <si>
     <t>43,42%</t>
   </si>
   <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>46,67%</t>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>46,8%</t>
   </si>
   <si>
     <t>43,32%</t>
   </si>
   <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>48,8%</t>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
   </si>
   <si>
     <t>43,96%</t>
   </si>
   <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
   </si>
   <si>
     <t>43,65%</t>
   </si>
   <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>46,56%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -251,547 +251,544 @@
     <t>3,78%</t>
   </si>
   <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
   </si>
   <si>
     <t>4,31%</t>
   </si>
   <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
   </si>
   <si>
     <t>4,07%</t>
   </si>
   <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>43,05%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>58,96%</t>
+  </si>
+  <si>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>64,8%</t>
+  </si>
+  <si>
+    <t>66,71%</t>
+  </si>
+  <si>
+    <t>61,76%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>63,13%</t>
+  </si>
+  <si>
+    <t>59,49%</t>
+  </si>
+  <si>
+    <t>66,64%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>43,34%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>51,32%</t>
+  </si>
+  <si>
+    <t>44,59%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>49,5%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>71,47%</t>
+  </si>
+  <si>
+    <t>64,71%</t>
+  </si>
+  <si>
+    <t>76,8%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>71,89%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>59,57%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>64,46%</t>
+  </si>
+  <si>
+    <t>63,61%</t>
+  </si>
+  <si>
+    <t>58,64%</t>
+  </si>
+  <si>
+    <t>68,29%</t>
+  </si>
+  <si>
+    <t>61,59%</t>
+  </si>
+  <si>
+    <t>58,21%</t>
+  </si>
+  <si>
+    <t>65,45%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>60,09%</t>
+  </si>
+  <si>
+    <t>55,64%</t>
+  </si>
+  <si>
+    <t>64,57%</t>
+  </si>
+  <si>
+    <t>59,99%</t>
+  </si>
+  <si>
+    <t>52,3%</t>
+  </si>
+  <si>
+    <t>75,83%</t>
+  </si>
+  <si>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>55,57%</t>
+  </si>
+  <si>
+    <t>69,74%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
     <t>2,9%</t>
   </si>
   <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>58,96%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>64,25%</t>
-  </si>
-  <si>
-    <t>66,71%</t>
-  </si>
-  <si>
-    <t>62,41%</t>
-  </si>
-  <si>
-    <t>70,84%</t>
-  </si>
-  <si>
-    <t>63,13%</t>
-  </si>
-  <si>
-    <t>59,7%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>43,34%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>50,76%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>44,59%</t>
-  </si>
-  <si>
-    <t>40,31%</t>
-  </si>
-  <si>
-    <t>49,29%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>71,47%</t>
-  </si>
-  <si>
-    <t>64,44%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>75,28%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>59,57%</t>
-  </si>
-  <si>
-    <t>53,6%</t>
-  </si>
-  <si>
-    <t>65,1%</t>
-  </si>
-  <si>
-    <t>63,61%</t>
-  </si>
-  <si>
-    <t>68,43%</t>
-  </si>
-  <si>
-    <t>61,59%</t>
-  </si>
-  <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>65,43%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>38,0%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>60,09%</t>
-  </si>
-  <si>
-    <t>55,57%</t>
-  </si>
-  <si>
-    <t>64,41%</t>
-  </si>
-  <si>
-    <t>59,99%</t>
-  </si>
-  <si>
-    <t>52,58%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>71,59%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
     <t>70,09%</t>
   </si>
   <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>75,72%</t>
+    <t>55,36%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
   </si>
   <si>
     <t>74,24%</t>
   </si>
   <si>
-    <t>71,23%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
+    <t>77,33%</t>
   </si>
   <si>
     <t>72,18%</t>
   </si>
   <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>75,2%</t>
+    <t>63,35%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
   </si>
   <si>
     <t>27,91%</t>
   </si>
   <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>41,96%</t>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
   </si>
   <si>
     <t>23,54%</t>
   </si>
   <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
   </si>
   <si>
     <t>25,71%</t>
   </si>
   <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
   </si>
   <si>
     <t>8,63%</t>
   </si>
   <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
   </si>
   <si>
     <t>9,53%</t>
   </si>
   <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
   </si>
   <si>
     <t>9,11%</t>
   </si>
   <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
   </si>
   <si>
     <t>43,9%</t>
   </si>
   <si>
-    <t>41,21%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
   </si>
   <si>
     <t>42,38%</t>
   </si>
   <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>44,26%</t>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>44,33%</t>
   </si>
   <si>
     <t>43,09%</t>
   </si>
   <si>
-    <t>40,5%</t>
+    <t>40,57%</t>
   </si>
   <si>
     <t>44,55%</t>
@@ -800,28 +797,25 @@
     <t>47,48%</t>
   </si>
   <si>
-    <t>45,36%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
   </si>
   <si>
     <t>48,09%</t>
   </si>
   <si>
-    <t>45,91%</t>
-  </si>
-  <si>
-    <t>54,62%</t>
+    <t>53,63%</t>
   </si>
   <si>
     <t>47,8%</t>
   </si>
   <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>50,7%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1236,7 +1230,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2EF03E9-A9CF-4E7C-8A6D-5F3C061BB071}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A256E180-D2FF-45C5-A3DE-85AF332F32B7}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1820,7 +1814,7 @@
         <v>125</v>
       </c>
       <c r="D13" s="7">
-        <v>117901</v>
+        <v>117902</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>79</v>
@@ -1871,7 +1865,7 @@
         <v>214</v>
       </c>
       <c r="D14" s="7">
-        <v>186576</v>
+        <v>186577</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>88</v>
@@ -1922,7 +1916,7 @@
         <v>352</v>
       </c>
       <c r="D15" s="7">
-        <v>316439</v>
+        <v>316440</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -2205,7 +2199,7 @@
         <v>130</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>131</v>
+        <v>18</v>
       </c>
       <c r="M20" s="7">
         <v>10</v>
@@ -2214,13 +2208,13 @@
         <v>3485</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2235,13 +2229,13 @@
         <v>54711</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H21" s="7">
         <v>95</v>
@@ -2250,13 +2244,13 @@
         <v>45147</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M21" s="7">
         <v>169</v>
@@ -2265,13 +2259,13 @@
         <v>99858</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2286,13 +2280,13 @@
         <v>140612</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H22" s="7">
         <v>389</v>
@@ -2301,13 +2295,13 @@
         <v>184289</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M22" s="7">
         <v>591</v>
@@ -2316,13 +2310,13 @@
         <v>324901</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2378,7 +2372,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2390,13 +2384,13 @@
         <v>14471</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H24" s="7">
         <v>17</v>
@@ -2405,13 +2399,13 @@
         <v>9181</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M24" s="7">
         <v>39</v>
@@ -2420,13 +2414,13 @@
         <v>23652</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2441,13 +2435,13 @@
         <v>165155</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H25" s="7">
         <v>283</v>
@@ -2456,10 +2450,10 @@
         <v>175320</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>166</v>
@@ -2871,10 +2865,10 @@
         <v>220</v>
       </c>
       <c r="K33" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="M33" s="7">
         <v>1360</v>
@@ -2883,13 +2877,13 @@
         <v>1247130</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P33" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="P33" s="7" t="s">
+      <c r="Q33" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2904,13 +2898,13 @@
         <v>239870</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="H34" s="7">
         <v>252</v>
@@ -2919,13 +2913,13 @@
         <v>204445</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="M34" s="7">
         <v>424</v>
@@ -2934,13 +2928,13 @@
         <v>444316</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3008,13 +3002,13 @@
         <v>291007</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="H36" s="7">
         <v>530</v>
@@ -3023,13 +3017,13 @@
         <v>361728</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="M36" s="7">
         <v>809</v>
@@ -3038,13 +3032,13 @@
         <v>652735</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3059,13 +3053,13 @@
         <v>1480272</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="H37" s="7">
         <v>2227</v>
@@ -3074,13 +3068,13 @@
         <v>1607879</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="M37" s="7">
         <v>3698</v>
@@ -3089,13 +3083,13 @@
         <v>3088151</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3110,13 +3104,13 @@
         <v>1600992</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="H38" s="7">
         <v>2593</v>
@@ -3125,13 +3119,13 @@
         <v>1824372</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="M38" s="7">
         <v>4203</v>
@@ -3140,13 +3134,13 @@
         <v>3425364</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3202,7 +3196,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36BPD14_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD14_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AB63F4D-9DF7-40A5-875D-91B74322DE2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{41E931A1-6761-4075-94BB-546769D639FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FC7CCE31-FF03-4544-9F7F-2875003C1363}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{2E6BA971-6698-4B77-A47D-2FFA9B6AE813}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -71,91 +71,91 @@
     <t>Menos de una por semana</t>
   </si>
   <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
   </si>
   <si>
     <t>Una por semana</t>
   </si>
   <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
   </si>
   <si>
     <t>Dos o más por semana</t>
   </si>
   <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
   </si>
   <si>
     <t>100%</t>
@@ -164,658 +164,658 @@
     <t>Cadiz</t>
   </si>
   <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>51,46%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>40,08%</t>
+  </si>
+  <si>
+    <t>47,04%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
+  </si>
+  <si>
+    <t>49,0%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>39,94%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>58,73%</t>
+  </si>
+  <si>
+    <t>52,89%</t>
+  </si>
+  <si>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>66,68%</t>
+  </si>
+  <si>
+    <t>61,75%</t>
+  </si>
+  <si>
+    <t>71,05%</t>
+  </si>
+  <si>
+    <t>62,92%</t>
+  </si>
+  <si>
+    <t>59,27%</t>
+  </si>
+  <si>
+    <t>66,47%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
   </si>
   <si>
     <t>14,54%</t>
   </si>
   <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>40,31%</t>
-  </si>
-  <si>
-    <t>51,21%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>46,8%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>43,96%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>43,65%</t>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>51,94%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>54,55%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>51,07%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>65,73%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>71,69%</t>
+  </si>
+  <si>
+    <t>65,02%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>76,02%</t>
+  </si>
+  <si>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>59,61%</t>
+  </si>
+  <si>
+    <t>54,17%</t>
+  </si>
+  <si>
+    <t>64,58%</t>
+  </si>
+  <si>
+    <t>63,65%</t>
+  </si>
+  <si>
+    <t>58,7%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
+  </si>
+  <si>
+    <t>58,21%</t>
+  </si>
+  <si>
+    <t>65,47%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>59,69%</t>
+  </si>
+  <si>
+    <t>54,61%</t>
+  </si>
+  <si>
+    <t>64,34%</t>
+  </si>
+  <si>
+    <t>64,72%</t>
+  </si>
+  <si>
+    <t>52,18%</t>
+  </si>
+  <si>
+    <t>62,59%</t>
+  </si>
+  <si>
+    <t>55,43%</t>
+  </si>
+  <si>
+    <t>76,84%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>54,93%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
+  </si>
+  <si>
+    <t>71,48%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>63,34%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>73,18%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
   </si>
   <si>
     <t>39,92%</t>
   </si>
   <si>
-    <t>46,56%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>43,05%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>58,96%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>64,8%</t>
-  </si>
-  <si>
-    <t>66,71%</t>
-  </si>
-  <si>
-    <t>61,76%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>63,13%</t>
-  </si>
-  <si>
-    <t>59,49%</t>
-  </si>
-  <si>
-    <t>66,64%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>43,34%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>51,32%</t>
-  </si>
-  <si>
-    <t>44,59%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>49,5%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>71,47%</t>
-  </si>
-  <si>
-    <t>64,71%</t>
-  </si>
-  <si>
-    <t>76,8%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>71,89%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>59,57%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>64,46%</t>
-  </si>
-  <si>
-    <t>63,61%</t>
-  </si>
-  <si>
-    <t>58,64%</t>
-  </si>
-  <si>
-    <t>68,29%</t>
-  </si>
-  <si>
-    <t>61,59%</t>
-  </si>
-  <si>
-    <t>58,21%</t>
-  </si>
-  <si>
-    <t>65,45%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>60,09%</t>
-  </si>
-  <si>
-    <t>55,64%</t>
-  </si>
-  <si>
-    <t>64,57%</t>
-  </si>
-  <si>
-    <t>59,99%</t>
-  </si>
-  <si>
-    <t>52,3%</t>
-  </si>
-  <si>
-    <t>75,83%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
-  </si>
-  <si>
-    <t>55,57%</t>
-  </si>
-  <si>
-    <t>69,74%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>70,09%</t>
-  </si>
-  <si>
-    <t>55,36%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>74,24%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>63,35%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>44,33%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>44,55%</t>
-  </si>
-  <si>
-    <t>47,48%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>53,63%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>50,7%</t>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>62,58%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>47,25%</t>
+  </si>
+  <si>
+    <t>60,48%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
+  </si>
+  <si>
+    <t>57,73%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1230,7 +1230,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A256E180-D2FF-45C5-A3DE-85AF332F32B7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34C9BEEF-1440-4E7B-BC98-37325EBAB1E0}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1351,7 +1351,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="7">
-        <v>9115</v>
+        <v>10823</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1366,7 +1366,7 @@
         <v>14</v>
       </c>
       <c r="I4" s="7">
-        <v>7193</v>
+        <v>7470</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1381,7 +1381,7 @@
         <v>26</v>
       </c>
       <c r="N4" s="7">
-        <v>16308</v>
+        <v>18293</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1402,7 +1402,7 @@
         <v>37</v>
       </c>
       <c r="D5" s="7">
-        <v>23506</v>
+        <v>27010</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1417,7 +1417,7 @@
         <v>60</v>
       </c>
       <c r="I5" s="7">
-        <v>27614</v>
+        <v>29556</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1432,7 +1432,7 @@
         <v>97</v>
       </c>
       <c r="N5" s="7">
-        <v>51120</v>
+        <v>56566</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1453,7 +1453,7 @@
         <v>282</v>
       </c>
       <c r="D6" s="7">
-        <v>227677</v>
+        <v>273610</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1468,7 +1468,7 @@
         <v>464</v>
       </c>
       <c r="I6" s="7">
-        <v>236597</v>
+        <v>252609</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1483,7 +1483,7 @@
         <v>746</v>
       </c>
       <c r="N6" s="7">
-        <v>464272</v>
+        <v>526218</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1504,7 +1504,7 @@
         <v>331</v>
       </c>
       <c r="D7" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -1519,7 +1519,7 @@
         <v>538</v>
       </c>
       <c r="I7" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -1534,7 +1534,7 @@
         <v>869</v>
       </c>
       <c r="N7" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -1557,7 +1557,7 @@
         <v>42</v>
       </c>
       <c r="D8" s="7">
-        <v>55651</v>
+        <v>56236</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>42</v>
@@ -1572,7 +1572,7 @@
         <v>113</v>
       </c>
       <c r="I8" s="7">
-        <v>83107</v>
+        <v>77105</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>45</v>
@@ -1587,7 +1587,7 @@
         <v>155</v>
       </c>
       <c r="N8" s="7">
-        <v>138758</v>
+        <v>133341</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>48</v>
@@ -1608,7 +1608,7 @@
         <v>175</v>
       </c>
       <c r="D9" s="7">
-        <v>238148</v>
+        <v>238018</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>51</v>
@@ -1623,7 +1623,7 @@
         <v>291</v>
       </c>
       <c r="I9" s="7">
-        <v>227691</v>
+        <v>211256</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>54</v>
@@ -1638,7 +1638,7 @@
         <v>466</v>
       </c>
       <c r="N9" s="7">
-        <v>465839</v>
+        <v>449274</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>57</v>
@@ -1659,7 +1659,7 @@
         <v>164</v>
       </c>
       <c r="D10" s="7">
-        <v>224556</v>
+        <v>223252</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>60</v>
@@ -1674,7 +1674,7 @@
         <v>313</v>
       </c>
       <c r="I10" s="7">
-        <v>243768</v>
+        <v>226608</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>63</v>
@@ -1689,7 +1689,7 @@
         <v>477</v>
       </c>
       <c r="N10" s="7">
-        <v>468324</v>
+        <v>449860</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>66</v>
@@ -1710,7 +1710,7 @@
         <v>381</v>
       </c>
       <c r="D11" s="7">
-        <v>518355</v>
+        <v>517506</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -1725,7 +1725,7 @@
         <v>717</v>
       </c>
       <c r="I11" s="7">
-        <v>554566</v>
+        <v>514969</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -1740,7 +1740,7 @@
         <v>1098</v>
       </c>
       <c r="N11" s="7">
-        <v>1072921</v>
+        <v>1032475</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -1763,7 +1763,7 @@
         <v>13</v>
       </c>
       <c r="D12" s="7">
-        <v>11962</v>
+        <v>11649</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>70</v>
@@ -1778,7 +1778,7 @@
         <v>22</v>
       </c>
       <c r="I12" s="7">
-        <v>15911</v>
+        <v>14765</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>73</v>
@@ -1793,7 +1793,7 @@
         <v>35</v>
       </c>
       <c r="N12" s="7">
-        <v>27873</v>
+        <v>26414</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>76</v>
@@ -1814,7 +1814,7 @@
         <v>125</v>
       </c>
       <c r="D13" s="7">
-        <v>117902</v>
+        <v>116512</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>79</v>
@@ -1829,7 +1829,7 @@
         <v>154</v>
       </c>
       <c r="I13" s="7">
-        <v>106976</v>
+        <v>100251</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>82</v>
@@ -1844,7 +1844,7 @@
         <v>279</v>
       </c>
       <c r="N13" s="7">
-        <v>224878</v>
+        <v>216763</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>85</v>
@@ -1865,7 +1865,7 @@
         <v>214</v>
       </c>
       <c r="D14" s="7">
-        <v>186577</v>
+        <v>182375</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>88</v>
@@ -1880,7 +1880,7 @@
         <v>354</v>
       </c>
       <c r="I14" s="7">
-        <v>246244</v>
+        <v>230212</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>91</v>
@@ -1895,7 +1895,7 @@
         <v>568</v>
       </c>
       <c r="N14" s="7">
-        <v>432821</v>
+        <v>412586</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>94</v>
@@ -1916,7 +1916,7 @@
         <v>352</v>
       </c>
       <c r="D15" s="7">
-        <v>316440</v>
+        <v>310535</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -1931,7 +1931,7 @@
         <v>530</v>
       </c>
       <c r="I15" s="7">
-        <v>369132</v>
+        <v>345228</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -1946,7 +1946,7 @@
         <v>882</v>
       </c>
       <c r="N15" s="7">
-        <v>685572</v>
+        <v>655763</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -1969,7 +1969,7 @@
         <v>66</v>
       </c>
       <c r="D16" s="7">
-        <v>72125</v>
+        <v>70171</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>98</v>
@@ -1984,7 +1984,7 @@
         <v>148</v>
       </c>
       <c r="I16" s="7">
-        <v>92834</v>
+        <v>85680</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>101</v>
@@ -1999,7 +1999,7 @@
         <v>214</v>
       </c>
       <c r="N16" s="7">
-        <v>164959</v>
+        <v>155851</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>104</v>
@@ -2020,7 +2020,7 @@
         <v>123</v>
       </c>
       <c r="D17" s="7">
-        <v>137441</v>
+        <v>134418</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>107</v>
@@ -2035,7 +2035,7 @@
         <v>279</v>
       </c>
       <c r="I17" s="7">
-        <v>190850</v>
+        <v>200986</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>110</v>
@@ -2050,7 +2050,7 @@
         <v>402</v>
       </c>
       <c r="N17" s="7">
-        <v>328291</v>
+        <v>335404</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>113</v>
@@ -2071,7 +2071,7 @@
         <v>97</v>
       </c>
       <c r="D18" s="7">
-        <v>107537</v>
+        <v>103043</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>116</v>
@@ -2086,7 +2086,7 @@
         <v>165</v>
       </c>
       <c r="I18" s="7">
-        <v>135439</v>
+        <v>180051</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>119</v>
@@ -2101,7 +2101,7 @@
         <v>262</v>
       </c>
       <c r="N18" s="7">
-        <v>242976</v>
+        <v>283094</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>122</v>
@@ -2122,7 +2122,7 @@
         <v>286</v>
       </c>
       <c r="D19" s="7">
-        <v>317103</v>
+        <v>307632</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -2137,7 +2137,7 @@
         <v>592</v>
       </c>
       <c r="I19" s="7">
-        <v>419123</v>
+        <v>466718</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -2152,7 +2152,7 @@
         <v>878</v>
       </c>
       <c r="N19" s="7">
-        <v>736226</v>
+        <v>774350</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -2175,7 +2175,7 @@
         <v>3</v>
       </c>
       <c r="D20" s="7">
-        <v>1425</v>
+        <v>1313</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>126</v>
@@ -2190,7 +2190,7 @@
         <v>7</v>
       </c>
       <c r="I20" s="7">
-        <v>2060</v>
+        <v>1927</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>129</v>
@@ -2199,22 +2199,22 @@
         <v>130</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>18</v>
+        <v>131</v>
       </c>
       <c r="M20" s="7">
         <v>10</v>
       </c>
       <c r="N20" s="7">
-        <v>3485</v>
+        <v>3240</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2226,46 +2226,46 @@
         <v>74</v>
       </c>
       <c r="D21" s="7">
-        <v>54711</v>
+        <v>49295</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H21" s="7">
         <v>95</v>
       </c>
       <c r="I21" s="7">
-        <v>45147</v>
+        <v>40278</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M21" s="7">
         <v>169</v>
       </c>
       <c r="N21" s="7">
-        <v>99858</v>
+        <v>89573</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2277,46 +2277,46 @@
         <v>202</v>
       </c>
       <c r="D22" s="7">
-        <v>140612</v>
+        <v>128134</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H22" s="7">
         <v>389</v>
       </c>
       <c r="I22" s="7">
-        <v>184289</v>
+        <v>166069</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M22" s="7">
         <v>591</v>
       </c>
       <c r="N22" s="7">
-        <v>324901</v>
+        <v>294203</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2328,7 +2328,7 @@
         <v>279</v>
       </c>
       <c r="D23" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -2343,7 +2343,7 @@
         <v>491</v>
       </c>
       <c r="I23" s="7">
-        <v>231496</v>
+        <v>208274</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -2358,7 +2358,7 @@
         <v>770</v>
       </c>
       <c r="N23" s="7">
-        <v>428244</v>
+        <v>387016</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -2372,7 +2372,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2381,46 +2381,46 @@
         <v>22</v>
       </c>
       <c r="D24" s="7">
-        <v>14471</v>
+        <v>14038</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H24" s="7">
         <v>17</v>
       </c>
       <c r="I24" s="7">
-        <v>9181</v>
+        <v>8550</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>156</v>
+        <v>71</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M24" s="7">
         <v>39</v>
       </c>
       <c r="N24" s="7">
-        <v>23652</v>
+        <v>22588</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2432,46 +2432,46 @@
         <v>224</v>
       </c>
       <c r="D25" s="7">
-        <v>165155</v>
+        <v>160738</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H25" s="7">
         <v>283</v>
       </c>
       <c r="I25" s="7">
-        <v>175320</v>
+        <v>163604</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M25" s="7">
         <v>507</v>
       </c>
       <c r="N25" s="7">
-        <v>340475</v>
+        <v>324342</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2483,46 +2483,46 @@
         <v>125</v>
       </c>
       <c r="D26" s="7">
-        <v>97598</v>
+        <v>94860</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H26" s="7">
         <v>160</v>
       </c>
       <c r="I26" s="7">
-        <v>91121</v>
+        <v>84902</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M26" s="7">
         <v>285</v>
       </c>
       <c r="N26" s="7">
-        <v>188718</v>
+        <v>179762</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2534,7 +2534,7 @@
         <v>371</v>
       </c>
       <c r="D27" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -2549,7 +2549,7 @@
         <v>460</v>
       </c>
       <c r="I27" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>40</v>
@@ -2564,7 +2564,7 @@
         <v>831</v>
       </c>
       <c r="N27" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -2578,7 +2578,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2587,46 +2587,46 @@
         <v>104</v>
       </c>
       <c r="D28" s="7">
-        <v>109084</v>
+        <v>111340</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H28" s="7">
         <v>186</v>
       </c>
       <c r="I28" s="7">
-        <v>132200</v>
+        <v>123336</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M28" s="7">
         <v>290</v>
       </c>
       <c r="N28" s="7">
-        <v>241284</v>
+        <v>234676</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2638,46 +2638,46 @@
         <v>140</v>
       </c>
       <c r="D29" s="7">
-        <v>141027</v>
+        <v>139902</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H29" s="7">
         <v>278</v>
       </c>
       <c r="I29" s="7">
-        <v>189533</v>
+        <v>176256</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M29" s="7">
         <v>418</v>
       </c>
       <c r="N29" s="7">
-        <v>330560</v>
+        <v>316158</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>197</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2689,7 +2689,7 @@
         <v>354</v>
       </c>
       <c r="D30" s="7">
-        <v>376566</v>
+        <v>372008</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>198</v>
@@ -2704,7 +2704,7 @@
         <v>496</v>
       </c>
       <c r="I30" s="7">
-        <v>482470</v>
+        <v>549673</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>201</v>
@@ -2713,22 +2713,22 @@
         <v>202</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="M30" s="7">
         <v>850</v>
       </c>
       <c r="N30" s="7">
-        <v>859036</v>
+        <v>921680</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2740,7 +2740,7 @@
         <v>598</v>
       </c>
       <c r="D31" s="7">
-        <v>626677</v>
+        <v>623250</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>40</v>
@@ -2755,7 +2755,7 @@
         <v>960</v>
       </c>
       <c r="I31" s="7">
-        <v>804203</v>
+        <v>849265</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>40</v>
@@ -2770,7 +2770,7 @@
         <v>1558</v>
       </c>
       <c r="N31" s="7">
-        <v>1430880</v>
+        <v>1472514</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>40</v>
@@ -2784,7 +2784,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2793,46 +2793,46 @@
         <v>17</v>
       </c>
       <c r="D32" s="7">
-        <v>17175</v>
+        <v>14589</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="H32" s="7">
         <v>23</v>
       </c>
       <c r="I32" s="7">
-        <v>19242</v>
+        <v>15933</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="L32" s="7" t="s">
+      <c r="M32" s="7">
+        <v>40</v>
+      </c>
+      <c r="N32" s="7">
+        <v>30522</v>
+      </c>
+      <c r="O32" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="M32" s="7">
-        <v>40</v>
-      </c>
-      <c r="N32" s="7">
-        <v>36416</v>
-      </c>
-      <c r="O32" s="7" t="s">
+      <c r="P32" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="P32" s="7" t="s">
-        <v>215</v>
-      </c>
       <c r="Q32" s="7" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2844,46 +2844,46 @@
         <v>573</v>
       </c>
       <c r="D33" s="7">
-        <v>602383</v>
+        <v>510181</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="H33" s="7">
         <v>787</v>
       </c>
       <c r="I33" s="7">
-        <v>644747</v>
+        <v>532644</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="M33" s="7">
         <v>1360</v>
       </c>
       <c r="N33" s="7">
-        <v>1247130</v>
+        <v>1042826</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P33" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="P33" s="7" t="s">
+      <c r="Q33" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2895,46 +2895,46 @@
         <v>172</v>
       </c>
       <c r="D34" s="7">
-        <v>239870</v>
+        <v>403950</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="H34" s="7">
         <v>252</v>
       </c>
       <c r="I34" s="7">
-        <v>204445</v>
+        <v>169154</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="M34" s="7">
         <v>424</v>
       </c>
       <c r="N34" s="7">
-        <v>444316</v>
+        <v>573104</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2946,7 +2946,7 @@
         <v>762</v>
       </c>
       <c r="D35" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>40</v>
@@ -2961,7 +2961,7 @@
         <v>1062</v>
       </c>
       <c r="I35" s="7">
-        <v>868434</v>
+        <v>717731</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>40</v>
@@ -2976,7 +2976,7 @@
         <v>1824</v>
       </c>
       <c r="N35" s="7">
-        <v>1727862</v>
+        <v>1646452</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>40</v>
@@ -2999,46 +2999,46 @@
         <v>279</v>
       </c>
       <c r="D36" s="7">
-        <v>291007</v>
+        <v>290159</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="H36" s="7">
         <v>530</v>
       </c>
       <c r="I36" s="7">
-        <v>361728</v>
+        <v>334765</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="M36" s="7">
         <v>809</v>
       </c>
       <c r="N36" s="7">
-        <v>652735</v>
+        <v>624924</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3050,46 +3050,46 @@
         <v>1471</v>
       </c>
       <c r="D37" s="7">
-        <v>1480272</v>
+        <v>1376073</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="H37" s="7">
         <v>2227</v>
       </c>
       <c r="I37" s="7">
-        <v>1607879</v>
+        <v>1454832</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="M37" s="7">
         <v>3698</v>
       </c>
       <c r="N37" s="7">
-        <v>3088151</v>
+        <v>2830905</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3101,28 +3101,28 @@
         <v>1610</v>
       </c>
       <c r="D38" s="7">
-        <v>1600992</v>
+        <v>1781231</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="H38" s="7">
         <v>2593</v>
       </c>
       <c r="I38" s="7">
-        <v>1824372</v>
+        <v>1859278</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="L38" s="7" t="s">
         <v>256</v>
@@ -3131,7 +3131,7 @@
         <v>4203</v>
       </c>
       <c r="N38" s="7">
-        <v>3425364</v>
+        <v>3640508</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>257</v>
@@ -3152,7 +3152,7 @@
         <v>3360</v>
       </c>
       <c r="D39" s="7">
-        <v>3372271</v>
+        <v>3447463</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>40</v>
@@ -3167,7 +3167,7 @@
         <v>5350</v>
       </c>
       <c r="I39" s="7">
-        <v>3793980</v>
+        <v>3648875</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>40</v>
@@ -3182,7 +3182,7 @@
         <v>8710</v>
       </c>
       <c r="N39" s="7">
-        <v>7166250</v>
+        <v>7096338</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>40</v>
